--- a/assets/cursos/EP/LOB1049.xlsx
+++ b/assets/cursos/EP/LOB1049.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Name:</t>
   </si>
   <si>
+    <t>Multivariate Statistics</t>
+  </si>
+  <si>
     <t>Créditos-aula:</t>
   </si>
   <si>
@@ -55,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2016</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -79,7 +82,7 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Distribuições Multivariadas, Confiabilidade, Distribuições Amostrais Multivariadas, Inferências Sobre Vetores de Médias, Testes de Hipóteses Sobre Médias, Associação entre variáveis , Regressão Logística, Análise de Variância Multivariada, Análise de Agrupamento, Componentes Principais, Análise Fatorial</t>
+    <t>Probabilidade: Vetor de variáveis aleatórias, Distribuição conjunta/marginal, Esperança e variância condicional/marginal. Estatística: Regressão Logística simples, Teste Qui-Quadrado, Testes de normalidade, Testes não-paramétricos. Técnicas Multivariadas: Gráficos multivariados, Regressão Linear Múltipla, Regressão Logística Múltipla, Análise de Variância Múltipla; Análise de agrupamento; Análise de componentes principais; Análise fatorial; Análise discriminante e Análise de correspondência</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -88,16 +91,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Vetor de variáveis aleatórias, Distribuição conjunta, distribuição marginal, distribuição condicional. Esperança e variância condicional/marginal. Covariância e correlação entre duas variáveis aleatórias.Aplicação de probabilidade: confiabilidade (definição de função de confiabilidade, taxa de falha) e teoria de decisão,Método de estimação e propriedade dos estimadores.
-Teste para comparação de duas populações (média, proporção e variância); teste t-pareado.
-Distribuição qui-quadrado: testes de independência e aderência.
-Associação entre variáveis qualitativas: tabelas de contingência, coeficiente de associação, sensitividade e especificidade, risco relativo, razão de chances; abordagem não paramétrica.
-Associação ente uma variável quantitativa e uma variável qualitativa: homogeneidade de distribuições, anova com um fator, gráficos de médias, gráficos de perfis, regressão logística; abordagem não paramétrica.
-Associação entre variáveis quantitativas: gráficos de dispersão, correlação linear, concordância, gráfico de perfis, regressão linear simples; abordagem não paramétrica.
-Associação entre três ou mais variáveis: regressão linear múltipla, anova com dois fatores; abordagem não paramétrica.
-Análise de agrupamentos.
-Análise de componentes principais.
-Análise fatorial</t>
+    <t>Probabilidade: Vetor de variáveis aleatórias, Distribuição conjunta/marginal, Esperança e Variância condicional/marginal.Estatística: Regressão Logística simples (coeficiente de associação, sensitividade e especificidade, risco relativo, razão de chances), Teste Qui-Quadrado (testes de aderência, homogeneidade e independência), Teste de normalidade (Shapiro-Wilk, Teste de Kolmogorov-Smirnov), Testes não-paramétricos para amostras pareadas e independentes.Técnicas Multivariadas: Gráficos multivariados, Regressão Linear Múltipla, Regressão Logística Múltipla, Análise de Variância Múltipla; Análise de agrupamento; Análise de componentes principais; Análise fatorial; Análise discriminante e Análise de correspondência</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -109,29 +103,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Aulas expositivas teóricas, aulas práticas, aulas de exercícios.</t>
+    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: N = (N1+...+Nn)/n</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas Avaliações P1 e P2 sendo a média calculada por (P1+2*P2)/3</t>
+    <t>NF≥ 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação.</t>
+    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>W. O. Bussab, P. A. Morettin, Estatística Básica, 8a ed., São Paulo: Editora Saraiva, 2013.
-M. N. Magalhães, A. C. Pedroso de Lima, Noções de Probabilidade e Estatística, 7a ed., 2ª reimpressão revista, São Paulo: Edusp, 2013.
-D. C. Montgomery, E. A. Peck, G. G. Vining, Introduction to Linear Regression Analysis, 4th ed., Hoboken: John Wiley, 2006.
-W. J. Conover, Practical Nonparametric Statistics, 3rd ed., New York: John Wiley d Sons, 1999.
-R. A. Johnson, D. W. Wichern, Applied Multivariate Statistical Analysis, 6th ed., New Jersey: Prentice Hall, 2007.</t>
+    <t>G.C. Runger, D. Montgomery. Estatística aplicada e probabilidade para engenheiros. São Paulo: Ed. LTC, 2009. D. C. Montgomery, E. A. Peck, G. G. Vining, Introduction to Linear Regression Analysis, 4th ed., Hoboken: John Wiley, 2006.W. J. Conover, Practical Nonparametric Statistics, 3rd ed., New York: John Wiley d Sons, 1999.R. A. Johnson, D. W. Wichern, Applied Multivariate Statistical Analysis, 6th ed., New Jersey: Prentice Hall, 2007.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -536,183 +526,189 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
